--- a/Sheet1.xlsx
+++ b/Sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIV\Desktop\Selenium jar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6DC0C8-1BDC-42CE-9C9F-11F76482D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CA928-3E1E-423E-A8DC-572AD177735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1C86EB8-BAE9-4AF3-9F91-FD805046E8C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -42,18 +42,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Invalid password. Please try again</t>
-  </si>
-  <si>
     <t>Paul</t>
   </si>
   <si>
-    <t>dsfsadgfsavsdgasdgsdagsadgads</t>
-  </si>
-  <si>
-    <t>Couldn't find your Google Account</t>
-  </si>
-  <si>
     <t>Alok</t>
   </si>
   <si>
@@ -78,25 +69,28 @@
     <t>pratap</t>
   </si>
   <si>
-    <t xml:space="preserve">Email </t>
-  </si>
-  <si>
-    <t>mansjd@gmail.com</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Size 2</t>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>tqo11</t>
+  </si>
+  <si>
+    <t>shah</t>
+  </si>
+  <si>
+    <t>dqwdq</t>
+  </si>
+  <si>
+    <t>thakur</t>
+  </si>
+  <si>
+    <t>awd</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>thij</t>
   </si>
 </sst>
 </file>
@@ -141,9 +135,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8A8043-AB7B-4CCA-94DB-6D588951D000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,114 +469,91 @@
     <col min="5" max="5" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>500</v>
-      </c>
-      <c r="F2">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>1998</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B90DF0E8-BBC3-4FD3-AC4A-CAF0EF845858}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>